--- a/Altruist/PCB/RoboTH_BME280/BOM_BME280_PCB TH.xlsx
+++ b/Altruist/PCB/RoboTH_BME280/BOM_BME280_PCB TH.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="BOM_BME280_PCB TH_2024-12-24" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="BOM_BME280_PCB TH_2025-02-24" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="59">
   <si>
     <t>No.</t>
   </si>
@@ -85,7 +85,7 @@
     <t>0.0025</t>
   </si>
   <si>
-    <t>8368492</t>
+    <t>4896130</t>
   </si>
   <si>
     <t/>
@@ -109,10 +109,10 @@
     <t>C152814</t>
   </si>
   <si>
-    <t>0.0016</t>
-  </si>
-  <si>
-    <t>1657159</t>
+    <t>0.0019</t>
+  </si>
+  <si>
+    <t>282795</t>
   </si>
   <si>
     <t>3</t>
@@ -136,10 +136,10 @@
     <t>R0402</t>
   </si>
   <si>
-    <t>0.0005</t>
-  </si>
-  <si>
-    <t>6422495</t>
+    <t>0.0006</t>
+  </si>
+  <si>
+    <t>5158098</t>
   </si>
   <si>
     <t>4</t>
@@ -160,10 +160,7 @@
     <t>CONN-SMD_HY2.0-4P</t>
   </si>
   <si>
-    <t>0.0609</t>
-  </si>
-  <si>
-    <t>405</t>
+    <t>0.0687</t>
   </si>
   <si>
     <t>HY2.0-4P-C146060</t>
@@ -187,10 +184,10 @@
     <t>LGA-8_BME280_BL</t>
   </si>
   <si>
-    <t>3.582</t>
-  </si>
-  <si>
-    <t>10196</t>
+    <t>3.471</t>
+  </si>
+  <si>
+    <t>4781</t>
   </si>
 </sst>
 </file>
@@ -799,55 +796,55 @@
         <v>49</v>
       </c>
       <c r="L5" t="s">
+        <v>43</v>
+      </c>
+      <c r="M5" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" t="s">
         <v>50</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" t="s">
         <v>53</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>53</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>55</v>
-      </c>
-      <c r="H6" t="s">
-        <v>56</v>
       </c>
       <c r="I6" t="s">
         <v>21</v>
       </c>
       <c r="J6" t="s">
+        <v>56</v>
+      </c>
+      <c r="K6" t="s">
         <v>57</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>58</v>
       </c>
-      <c r="L6" t="s">
-        <v>59</v>
-      </c>
       <c r="M6" t="s">
         <v>25</v>
       </c>
@@ -855,7 +852,7 @@
         <v>25</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
